--- a/rozkład_T_studneta.xlsx
+++ b/rozkład_T_studneta.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>m=</t>
   </si>
@@ -133,6 +133,36 @@
   </si>
   <si>
     <t>a=alfa jak coś</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-funkcja </t>
+  </si>
+  <si>
+    <t>-funkcja</t>
+  </si>
+  <si>
+    <t>funkcja</t>
+  </si>
+  <si>
+    <t>df=</t>
+  </si>
+  <si>
+    <t>t=</t>
+  </si>
+  <si>
+    <t>wk=</t>
+  </si>
+  <si>
+    <t>wk&lt;niż t zatem t należy do obszaru krytycznego</t>
+  </si>
+  <si>
+    <t>1-a</t>
+  </si>
+  <si>
+    <t>wartość populacji znajdująca się poniżej 1,33 to 0,8</t>
+  </si>
+  <si>
+    <t>wk&gt; niż t zatem t nie należy do obszaru krytycznego</t>
   </si>
 </sst>
 </file>
@@ -140,8 +170,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -217,10 +247,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -230,8 +260,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -370,13 +401,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>315335</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85801</xdr:rowOff>
+      <xdr:rowOff>57226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -393,7 +424,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3733800"/>
+          <a:off x="0" y="3705225"/>
           <a:ext cx="7240010" cy="543001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -450,7 +481,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>458229</xdr:colOff>
+      <xdr:colOff>410604</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>74</xdr:rowOff>
     </xdr:to>
@@ -488,7 +519,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>124903</xdr:colOff>
+      <xdr:colOff>77278</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152533</xdr:rowOff>
     </xdr:to>
@@ -563,8 +594,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>39089</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>601064</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114389</xdr:rowOff>
     </xdr:to>
@@ -602,7 +633,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>105769</xdr:colOff>
+      <xdr:colOff>58144</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>104865</xdr:rowOff>
     </xdr:to>
@@ -623,6 +654,120 @@
         <a:xfrm>
           <a:off x="8134350" y="5362575"/>
           <a:ext cx="7125694" cy="647790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>248626</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Obraz 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15211425" y="47625"/>
+          <a:ext cx="6992326" cy="590632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>334359</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Obraz 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17068800" y="1600200"/>
+          <a:ext cx="7049484" cy="466790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>305856</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Obraz 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16525875" y="3257550"/>
+          <a:ext cx="7563906" cy="638264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -991,19 +1136,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:T36"/>
+  <dimension ref="A4:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1021,7 +1168,7 @@
       </c>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1041,11 +1188,21 @@
       <c r="N5">
         <v>18</v>
       </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="F6" s="11">
+        <f>_xlfn.T.INV.2T(C5,C4)</f>
+        <v>2.1788128296672284</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M6" t="s">
         <v>10</v>
       </c>
@@ -1056,12 +1213,15 @@
         <f>N6/2</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P6" s="12">
-        <f>TDIST(N7,N5,1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P6" s="12"/>
+      <c r="Y6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1069,16 +1229,68 @@
       <c r="M7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <f>_xlfn.T.INV(O6,N5)</f>
+        <v>-2.8784404727386073</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="Y7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z8">
+        <f>_xlfn.T.INV.2T(Z7,Z5)</f>
+        <v>2.1314495455597742</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC15">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AB16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC16">
+        <v>0.2</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1100,8 +1312,22 @@
       <c r="Q17" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AB17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC17">
+        <f>1-AC16</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C18" s="11">
+        <f>_xlfn.CHISQ.INV.RT(B17,B16)</f>
+        <v>21.026069817483066</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="N18" t="s">
         <v>27</v>
       </c>
@@ -1117,7 +1343,7 @@
         <v>4.9924533045678787E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C19" s="3">
         <f>CHIDIST(D17,B16)</f>
         <v>4.9999561034916769E-2</v>
@@ -1134,13 +1360,48 @@
       <c r="O19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="11">
+        <f>_xlfn.F.INV.RT(O17,O18,O19)</f>
+        <v>3.0983912121407795</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC23">
+        <v>0.05</v>
+      </c>
+      <c r="AD23">
+        <f>AC23/2</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC24">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1163,8 +1424,18 @@
       <c r="P25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AB25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC25">
+        <f>_xlfn.T.INV.2T(AD23,AC22)</f>
+        <v>2.4231165398734076</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1188,7 +1459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1473,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
